--- a/Inventory.xlsx
+++ b/Inventory.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>S.No.</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>StockCheckedon?</t>
+  </si>
+  <si>
+    <t>Threshold</t>
   </si>
   <si>
     <t>Stockless</t>
@@ -486,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,19 +523,22 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>5000</v>
@@ -540,28 +546,31 @@
       <c r="F2" s="2">
         <v>44571</v>
       </c>
-      <c r="G2" t="s">
-        <v>23</v>
+      <c r="G2">
+        <v>10000</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>5000</v>
@@ -569,86 +578,95 @@
       <c r="F3" s="2">
         <v>44625</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
+      <c r="G3">
+        <v>5000</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>10400</v>
+        <v>10600</v>
       </c>
       <c r="F4" s="2">
         <v>44671</v>
       </c>
-      <c r="G4" t="s">
-        <v>23</v>
+      <c r="G4">
+        <v>14200</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="F5" s="2">
         <v>44727</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
+      <c r="G5">
+        <v>300</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>200</v>
@@ -656,28 +674,31 @@
       <c r="F6" s="2">
         <v>44764</v>
       </c>
-      <c r="G6" t="s">
-        <v>24</v>
+      <c r="G6">
+        <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1000</v>
@@ -685,28 +706,31 @@
       <c r="F7" s="2">
         <v>45024</v>
       </c>
-      <c r="G7" t="s">
-        <v>24</v>
+      <c r="G7">
+        <v>1000</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3000</v>
@@ -714,43 +738,49 @@
       <c r="F8" s="2">
         <v>45060</v>
       </c>
-      <c r="G8" t="s">
-        <v>24</v>
+      <c r="G8">
+        <v>1000</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="2">
         <v>45106</v>
       </c>
-      <c r="G9" t="s">
-        <v>23</v>
+      <c r="G9">
+        <v>1000</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
